--- a/Practica2/Pruebas/Pruebas.xlsx
+++ b/Practica2/Pruebas/Pruebas.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\5° SEMESTRE\Analisis de Algoritmos\Practicas\Practica2\Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55025869-9CB7-4DF3-AFB3-5FC7ECBBDCD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E53468-D734-4C42-96D7-7BE0A4A1AE1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="3870" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3500" activeTab="1" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Binaria" sheetId="1" r:id="rId1"/>
+    <sheet name="Lineal" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
   <si>
     <t>Tiempo Real (seg)</t>
   </si>
@@ -73,12 +77,21 @@
   <si>
     <t>Tiempo por Hilo - 2 (seg)</t>
   </si>
+  <si>
+    <t>Búsqueda lineal</t>
+  </si>
+  <si>
+    <t>Número a buscar</t>
+  </si>
+  <si>
+    <t>%CPU/Wall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +112,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFABDFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +218,42 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,7 +370,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -569,7 +637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -607,7 +675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470176680"/>
@@ -694,7 +762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -726,7 +794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470174056"/>
@@ -774,7 +842,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -850,7 +918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1117,7 +1185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1155,7 +1223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="534478992"/>
@@ -1242,7 +1310,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1274,7 +1342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="534476040"/>
@@ -1322,7 +1390,1464 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiemos de búsqueda lineal promedio para N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11309256652519895"/>
+          <c:y val="0.12584304240015942"/>
+          <c:w val="0.86521920096328664"/>
+          <c:h val="0.64292594712515128"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Hoja1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.7022783645807003E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.77757635558373E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.569986307004E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1076202756375999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00839140941388E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9055604934692299E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7535428418777802E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3131325189024199E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2246966361999501E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6656507980078398E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82319874875247E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6878467071801398E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.28765812143683E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3069212958216598E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9125625565647992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.11029148101806E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.25129465013742E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4274966903030799E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5519404783844899E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7345856875181101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5A6-413C-8846-77A509FFE489}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="626599216"/>
+        <c:axId val="626597904"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>TIEMPO (SEG)</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Hoja1!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4000000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7000000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8000000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9000000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Hoja1!$A$1:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="#,##0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="#,##0">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="#,##0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="#,##0">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="#,##0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="#,##0">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="#,##0">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="#,##0">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="#,##0">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="#,##0">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="#,##0">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="#,##0">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="#,##0">
+                        <c:v>4000000</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="#,##0">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="#,##0">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="#,##0">
+                        <c:v>7000000</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="#,##0">
+                        <c:v>8000000</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="#,##0">
+                        <c:v>9000000</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="#,##0">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A5A6-413C-8846-77A509FFE489}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626599216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626597904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626597904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TIEMPO (SEG)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626599216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Tiempos de búsqueda lineal (hilos) promedio para N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Hoja1!$A$24:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$I$24:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9180773961124901E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1958350771455998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0159950256347599E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4143198465462699E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1034011549782E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8575190915726101E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.29947477439418E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3752400930970896E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2227460118010597E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3246178859844799E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58133509103208E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.11040878295898E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6335579827427803E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2277675606310298E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4189426377415596E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5593583062291093E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00782634690403E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.26362089067697E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3014209456741799E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45057197660207E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-220C-475F-B445-11F2007FB90A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="628471704"/>
+        <c:axId val="628470392"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Hoja1!$A$24:$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4000000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7000000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8000000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9000000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Hoja1!$I$24:$I$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.9180773961124901E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.1958350771455998E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.0159950256347599E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4143198465462699E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1034011549782E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.8575190915726101E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.29947477439418E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.3752400930970896E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.2227460118010597E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.3246178859844799E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.58133509103208E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.11040878295898E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.6335579827427803E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.2277675606310298E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7.4189426377415596E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.5593583062291093E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.00782634690403E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.26362089067697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.3014209456741799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.45057197660207E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-220C-475F-B445-11F2007FB90A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628471704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628470392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628470392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TIEMPO (SEG)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628471704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1413,6 +2938,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1917,6 +3522,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2494,6 +5105,426 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692DAC00-A8AF-4349-A7DD-5CB9ECA5AAF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>722311</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B51ADF-0ED8-4EDD-9BF7-A5895315F88F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Búsqueda lineal</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>100</v>
+          </cell>
+          <cell r="H2">
+            <v>8.7022783645807003E-7</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1000</v>
+          </cell>
+          <cell r="H3">
+            <v>2.77757635558373E-6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>5000</v>
+          </cell>
+          <cell r="H4">
+            <v>1.569986307004E-5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>10000</v>
+          </cell>
+          <cell r="H5">
+            <v>2.1076202756375999E-5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>50000</v>
+          </cell>
+          <cell r="H6">
+            <v>1.00839140941388E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>100000</v>
+          </cell>
+          <cell r="H7">
+            <v>1.9055604934692299E-4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>200000</v>
+          </cell>
+          <cell r="H8">
+            <v>3.7535428418777802E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>400000</v>
+          </cell>
+          <cell r="H9">
+            <v>7.3131325189024199E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>600000</v>
+          </cell>
+          <cell r="H10">
+            <v>1.2246966361999501E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>800000</v>
+          </cell>
+          <cell r="H11">
+            <v>2.6656507980078398E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1000000</v>
+          </cell>
+          <cell r="H12">
+            <v>1.82319874875247E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2000000</v>
+          </cell>
+          <cell r="H13">
+            <v>3.6878467071801398E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>3000000</v>
+          </cell>
+          <cell r="H14">
+            <v>6.28765812143683E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>4000000</v>
+          </cell>
+          <cell r="H15">
+            <v>7.3069212958216598E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>5000000</v>
+          </cell>
+          <cell r="H16">
+            <v>9.9125625565647992E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>6000000</v>
+          </cell>
+          <cell r="H17">
+            <v>1.11029148101806E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>7000000</v>
+          </cell>
+          <cell r="H18">
+            <v>1.25129465013742E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>8000000</v>
+          </cell>
+          <cell r="H19">
+            <v>1.4274966903030799E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>9000000</v>
+          </cell>
+          <cell r="H20">
+            <v>1.5519404783844899E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>10000000</v>
+          </cell>
+          <cell r="H21">
+            <v>1.7345856875181101E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>100</v>
+          </cell>
+          <cell r="I24">
+            <v>1.9180773961124901E-5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1000</v>
+          </cell>
+          <cell r="I25">
+            <v>2.1958350771455998E-5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>5000</v>
+          </cell>
+          <cell r="I26">
+            <v>3.0159950256347599E-5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>10000</v>
+          </cell>
+          <cell r="I27">
+            <v>4.4143198465462699E-5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>50000</v>
+          </cell>
+          <cell r="I28">
+            <v>1.1034011549782E-4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>100000</v>
+          </cell>
+          <cell r="I29">
+            <v>1.8575190915726101E-4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>200000</v>
+          </cell>
+          <cell r="I30">
+            <v>3.29947477439418E-4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>400000</v>
+          </cell>
+          <cell r="I31">
+            <v>7.3752400930970896E-4</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>600000</v>
+          </cell>
+          <cell r="I32">
+            <v>9.2227460118010597E-4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>800000</v>
+          </cell>
+          <cell r="I33">
+            <v>1.3246178859844799E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1000000</v>
+          </cell>
+          <cell r="I34">
+            <v>1.58133509103208E-3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2000000</v>
+          </cell>
+          <cell r="I35">
+            <v>3.11040878295898E-3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>3000000</v>
+          </cell>
+          <cell r="I36">
+            <v>4.6335579827427803E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4000000</v>
+          </cell>
+          <cell r="I37">
+            <v>6.2277675606310298E-3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>5000000</v>
+          </cell>
+          <cell r="I38">
+            <v>7.4189426377415596E-3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>6000000</v>
+          </cell>
+          <cell r="I39">
+            <v>8.5593583062291093E-3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>7000000</v>
+          </cell>
+          <cell r="I40">
+            <v>1.00782634690403E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>8000000</v>
+          </cell>
+          <cell r="I41">
+            <v>1.26362089067697E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>9000000</v>
+          </cell>
+          <cell r="I42">
+            <v>1.3014209456741799E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>10000000</v>
+          </cell>
+          <cell r="I43">
+            <v>1.45057197660207E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2795,23 +5826,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75AF09-E0BD-4AA2-AB32-F0D8724F4C46}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="I1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +5868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -2863,7 +5894,7 @@
         <v>6.6757201011568996E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1000</v>
       </c>
@@ -2889,7 +5920,7 @@
         <v>7.5101854690728995E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>5000</v>
       </c>
@@ -2915,7 +5946,7 @@
         <v>6.5565109252930005E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>10000</v>
       </c>
@@ -2941,7 +5972,7 @@
         <v>5.9604644775390996E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>50000</v>
       </c>
@@ -2967,7 +5998,7 @@
         <v>8.4638594444186003E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>100000</v>
       </c>
@@ -2993,7 +6024,7 @@
         <v>7.9870221725287001E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>200000</v>
       </c>
@@ -3019,7 +6050,7 @@
         <v>9.0599058921725002E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>400000</v>
       </c>
@@ -3045,7 +6076,7 @@
         <v>8.4638594444186003E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>600000</v>
       </c>
@@ -3071,7 +6102,7 @@
         <v>7.3909757247748002E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>800000</v>
       </c>
@@ -3097,7 +6128,7 @@
         <v>9.4175339881985999E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1000000</v>
       </c>
@@ -3123,7 +6154,7 @@
         <v>7.1525573730469004E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2000000</v>
       </c>
@@ -3149,7 +6180,7 @@
         <v>1.1563300859052099E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>3000000</v>
       </c>
@@ -3175,7 +6206,7 @@
         <v>1.09672544112982E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>4000000</v>
       </c>
@@ -3201,7 +6232,7 @@
         <v>1.13248825073242E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>5000000</v>
       </c>
@@ -3227,7 +6258,7 @@
         <v>1.10864641555963E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>6000000</v>
       </c>
@@ -3253,7 +6284,7 @@
         <v>1.2636185147130199E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>7000000</v>
       </c>
@@ -3279,7 +6310,7 @@
         <v>1.2755393754559899E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>8000000</v>
       </c>
@@ -3305,7 +6336,7 @@
         <v>1.2874603498858099E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>9000000</v>
       </c>
@@ -3331,7 +6362,7 @@
         <v>1.2636185147130199E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>10000000</v>
       </c>
@@ -3357,7 +6388,7 @@
         <v>1.3828278042637999E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +6417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>100</v>
       </c>
@@ -3415,7 +6446,7 @@
         <v>2.0384788513183499E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1000</v>
       </c>
@@ -3444,7 +6475,7 @@
         <v>2.3257733118953099E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>5000</v>
       </c>
@@ -3473,7 +6504,7 @@
         <v>1.8966198695125001E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>10000</v>
       </c>
@@ -3502,7 +6533,7 @@
         <v>1.9812583559541899E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>50000</v>
       </c>
@@ -3531,7 +6562,7 @@
         <v>1.9407272702665E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>100000</v>
       </c>
@@ -3560,7 +6591,7 @@
         <v>2.5379657017765499E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>200000</v>
       </c>
@@ -3589,7 +6620,7 @@
         <v>2.2375583284883699E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>400000</v>
       </c>
@@ -3618,7 +6649,7 @@
         <v>2.3674965632380901E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>600000</v>
       </c>
@@ -3647,7 +6678,7 @@
         <v>2.4807453883113299E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>800000</v>
       </c>
@@ -3676,7 +6707,7 @@
         <v>2.2745132810086899E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1000000</v>
       </c>
@@ -3705,7 +6736,7 @@
         <v>2.0718574887723601E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2000000</v>
       </c>
@@ -3734,7 +6765,7 @@
         <v>2.2244454157771499E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>3000000</v>
       </c>
@@ -3763,7 +6794,7 @@
         <v>2.0563602447509701E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>4000000</v>
       </c>
@@ -3792,7 +6823,7 @@
         <v>2.06112854357343E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>5000000</v>
       </c>
@@ -3821,7 +6852,7 @@
         <v>2.4354458219022399E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>6000000</v>
       </c>
@@ -3850,7 +6881,7 @@
         <v>2.5498866307316301E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>7000000</v>
       </c>
@@ -3879,7 +6910,7 @@
         <v>2.2387504941434599E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>8000000</v>
       </c>
@@ -3908,7 +6939,7 @@
         <v>2.1719932192354399E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>9000000</v>
       </c>
@@ -3937,7 +6968,7 @@
         <v>2.10523612622637E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>10000000</v>
       </c>
@@ -3971,4 +7002,1186 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D766D3-7DAB-4C17-B436-DF4198543227}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>100</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.19209289550781E-6</v>
+      </c>
+      <c r="E2" s="14">
+        <v>9.9999999999991504E-7</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>83.886080000000007</v>
+      </c>
+      <c r="H2" s="15">
+        <v>8.7022783645807003E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3.09944152832031E-6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>3.0000000000001801E-6</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>96.791630769999998</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2.77757635558373E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
+        <v>5000</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2.4999999999999801E-5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>100.82461538</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.569986307004E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2.288818359375E-5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2.3E-5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>100.48853333</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2.1076202756375999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.1086463928222599E-4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1.11E-4</v>
+      </c>
+      <c r="G6" s="15">
+        <v>100.12209548</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.00839140941388E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2.2912025451660099E-4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>7.5999999999999598E-5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="G7" s="19">
+        <v>99.947514670000004</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.9055604934692299E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>200000</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4.43935394287109E-4</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.44E-4</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>100.01455295</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3.7535428418777802E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>400000</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9.0503692626953103E-4</v>
+      </c>
+      <c r="E9" s="18">
+        <v>9.0400000000000202E-4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>99.885427190000001</v>
+      </c>
+      <c r="H9" s="19">
+        <v>7.3131325189024199E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
+        <v>600000</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.49798393249511E-3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1.495E-3</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>99.800803439999996</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1.2246966361999501E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <v>800000</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1.85012817382812E-3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.8479999999999901E-3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>99.884971550000003</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2.6656507980078398E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2.4318695068359301E-3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>99.923124709999996</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1.82319874875247E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4.80413436889648E-3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4.8019999999999998E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>99.955572250000003</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.6878467071801398E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14">
+        <v>7.2751045227050703E-3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>7.2030000000000097E-3</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>99.008886779999997</v>
+      </c>
+      <c r="H14" s="15">
+        <v>6.28765812143683E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>4000000</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="18">
+        <v>9.81903076171875E-3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9.7790000000000099E-3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>9.7790000000000099E-3</v>
+      </c>
+      <c r="G15" s="19">
+        <v>99.592314529999996</v>
+      </c>
+      <c r="H15" s="19">
+        <v>7.3069212958216598E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
+        <v>5000000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1.2215852737426701E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.2208999999999999E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>99.943902910000006</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.9125625565647992E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <v>6000000</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1.47080421447753E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.4699E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>99.93852244</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1.11029148101806E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
+        <v>7000000</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1.6671895980834898E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1.6616999999999899E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>99.670727429999999</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1.25129465013742E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>8000000</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2.1053075790405201E-2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.0958999999999998E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>99.553149419999997</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1.4274966903030799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>9000000</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2.1263122558593701E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2.1235999999999901E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>99.872443200000006</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1.5519404783844899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>10000000</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2.3371934890747001E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2.3303000000000001E-2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>99.705052699999996</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1.7345856875181101E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>100</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.59740448E-5</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1.4E-5</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.87642173130000001</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1.9180773961124901E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
+        <v>1000</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1.7166137694999999E-5</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H25" s="19">
+        <v>87.381333330000004</v>
+      </c>
+      <c r="I25" s="19">
+        <v>2.1958350771455998E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2.7179718018000002E-5</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H26" s="15">
+        <v>91.980350880000003</v>
+      </c>
+      <c r="I26" s="15">
+        <v>3.0159950256347599E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="22">
+        <v>10000</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="18">
+        <v>3.6001205443999997E-5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>3.4E-5</v>
+      </c>
+      <c r="H27" s="19">
+        <v>94.441282119999997</v>
+      </c>
+      <c r="I27" s="19">
+        <v>4.4143198465462699E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.2493133545E-4</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="H28" s="15">
+        <v>98.454082439999993</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1.1034011549782E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="22">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2.3913383483999999E-4</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.18E-4</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>98.689505879999999</v>
+      </c>
+      <c r="I29" s="19">
+        <v>1.8575190915726101E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4.2295455932999998E-4</v>
+      </c>
+      <c r="E30" s="14">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="G30" s="14">
+        <v>3.88E-4</v>
+      </c>
+      <c r="H30" s="15">
+        <v>99.301447580000001</v>
+      </c>
+      <c r="I30" s="15">
+        <v>3.29947477439418E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="22">
+        <v>400000</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="18">
+        <v>8.659362793E-4</v>
+      </c>
+      <c r="E31" s="18">
+        <v>8.6200000000000003E-4</v>
+      </c>
+      <c r="F31" s="18">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>99.545430839999995</v>
+      </c>
+      <c r="I31" s="19">
+        <v>7.3752400930970896E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>600000</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1.2190341948999999E-3</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.2149999999999999E-3</v>
+      </c>
+      <c r="F32" s="14">
+        <v>6.0749999999999997E-4</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>99.669066299999997</v>
+      </c>
+      <c r="I32" s="15">
+        <v>9.2227460118010597E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="22">
+        <v>800000</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1.7778873444E-3</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1.774E-3</v>
+      </c>
+      <c r="F33" s="18">
+        <v>8.8699999999999998E-4</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <v>99.781350360000005</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1.3246178859844799E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2.1178722381999999E-3</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2.114E-3</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1.057E-3</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>99.817163750000006</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1.58133509103208E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="18">
+        <v>4.3888092041000004E-3</v>
+      </c>
+      <c r="E35" s="18">
+        <v>4.3790000000000001E-3</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2.1895E-3</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>99.776495089999997</v>
+      </c>
+      <c r="I35" s="19">
+        <v>3.11040878295898E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="14">
+        <v>6.5279006957999998E-3</v>
+      </c>
+      <c r="E36" s="14">
+        <v>6.424E-3</v>
+      </c>
+      <c r="F36" s="14">
+        <v>3.212E-3</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>98.408359739999995</v>
+      </c>
+      <c r="I36" s="15">
+        <v>4.6335579827427803E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="22">
+        <v>4000000</v>
+      </c>
+      <c r="B37" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18">
+        <v>8.5639953612999999E-3</v>
+      </c>
+      <c r="E37" s="18">
+        <v>8.5459999999999998E-3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>4.2729999999999999E-3</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>99.789871890000001</v>
+      </c>
+      <c r="I37" s="19">
+        <v>6.2277675606310298E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1.062297821E-2</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1.0586999999999999E-2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>5.2934999999999996E-3</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>99.661317100000005</v>
+      </c>
+      <c r="I38" s="15">
+        <v>7.4189426377415596E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="22">
+        <v>6000000</v>
+      </c>
+      <c r="B39" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1.2990951537999999E-2</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.2971999999999999E-2</v>
+      </c>
+      <c r="F39" s="18">
+        <v>6.4859999999999996E-3</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <v>99.854117400000007</v>
+      </c>
+      <c r="I39" s="19">
+        <v>8.5593583062291093E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.4677047729E-2</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1.4643E-2</v>
+      </c>
+      <c r="F40" s="14">
+        <v>7.3214999999999999E-3</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>99.768020579999998</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1.00782634690403E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="22">
+        <v>8000000</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1.6945123672E-2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.6910000000000001E-2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>8.4550000000000007E-3</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>99.792721060000005</v>
+      </c>
+      <c r="I41" s="19">
+        <v>1.26362089067697E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2109248666</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1.9279003143E-2</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1.9224999999999999E-2</v>
+      </c>
+      <c r="F42" s="14">
+        <v>9.6124999999999995E-3</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>99.71988623</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1.3014209456741799E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="22">
+        <v>10000000</v>
+      </c>
+      <c r="B43" s="17">
+        <v>2109248666</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2.2022008895999999E-2</v>
+      </c>
+      <c r="E43" s="18">
+        <v>2.1923000000000002E-2</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1.0961500000000001E-2</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>99.550409340000002</v>
+      </c>
+      <c r="I43" s="19">
+        <v>1.45057197660207E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Practica2/Pruebas/Pruebas.xlsx
+++ b/Practica2/Pruebas/Pruebas.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Desktop\ESCUELA\GitHub\Analisis-Algoritmos\Practica2\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E53468-D734-4C42-96D7-7BE0A4A1AE1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CD2D0-38D4-430C-AE6F-89FBB59F1360}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3500" activeTab="1" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="2" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Binaria" sheetId="1" r:id="rId1"/>
     <sheet name="Lineal" sheetId="2" r:id="rId2"/>
+    <sheet name="ABB" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="19">
   <si>
     <t>Tiempo Real (seg)</t>
   </si>
@@ -86,6 +87,12 @@
   <si>
     <t>%CPU/Wall</t>
   </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +133,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,6 +268,24 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +322,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFABDFFF"/>
     </mruColors>
   </colors>
@@ -370,7 +403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -637,7 +670,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -675,7 +708,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470176680"/>
@@ -762,7 +795,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -794,7 +827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470174056"/>
@@ -842,7 +875,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -918,7 +951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1185,7 +1218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1223,7 +1256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="534478992"/>
@@ -1310,7 +1343,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1342,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="534476040"/>
@@ -1390,7 +1423,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1466,7 +1499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1520,9 +1553,9 @@
             <c:numRef>
               <c:f>[1]Hoja1!$A$2:$A$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1716,9 +1749,9 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
-                      <c:pt idx="0" formatCode="General">
+                      <c:pt idx="0">
                         <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
@@ -1799,61 +1832,61 @@
                       <c:pt idx="1">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="2" formatCode="#,##0">
+                      <c:pt idx="2">
                         <c:v>1000</c:v>
                       </c:pt>
-                      <c:pt idx="3" formatCode="#,##0">
+                      <c:pt idx="3">
                         <c:v>5000</c:v>
                       </c:pt>
-                      <c:pt idx="4" formatCode="#,##0">
+                      <c:pt idx="4">
                         <c:v>10000</c:v>
                       </c:pt>
-                      <c:pt idx="5" formatCode="#,##0">
+                      <c:pt idx="5">
                         <c:v>50000</c:v>
                       </c:pt>
-                      <c:pt idx="6" formatCode="#,##0">
+                      <c:pt idx="6">
                         <c:v>100000</c:v>
                       </c:pt>
-                      <c:pt idx="7" formatCode="#,##0">
+                      <c:pt idx="7">
                         <c:v>200000</c:v>
                       </c:pt>
-                      <c:pt idx="8" formatCode="#,##0">
+                      <c:pt idx="8">
                         <c:v>400000</c:v>
                       </c:pt>
-                      <c:pt idx="9" formatCode="#,##0">
+                      <c:pt idx="9">
                         <c:v>600000</c:v>
                       </c:pt>
-                      <c:pt idx="10" formatCode="#,##0">
+                      <c:pt idx="10">
                         <c:v>800000</c:v>
                       </c:pt>
-                      <c:pt idx="11" formatCode="#,##0">
+                      <c:pt idx="11">
                         <c:v>1000000</c:v>
                       </c:pt>
-                      <c:pt idx="12" formatCode="#,##0">
+                      <c:pt idx="12">
                         <c:v>2000000</c:v>
                       </c:pt>
-                      <c:pt idx="13" formatCode="#,##0">
+                      <c:pt idx="13">
                         <c:v>3000000</c:v>
                       </c:pt>
-                      <c:pt idx="14" formatCode="#,##0">
+                      <c:pt idx="14">
                         <c:v>4000000</c:v>
                       </c:pt>
-                      <c:pt idx="15" formatCode="#,##0">
+                      <c:pt idx="15">
                         <c:v>5000000</c:v>
                       </c:pt>
-                      <c:pt idx="16" formatCode="#,##0">
+                      <c:pt idx="16">
                         <c:v>6000000</c:v>
                       </c:pt>
-                      <c:pt idx="17" formatCode="#,##0">
+                      <c:pt idx="17">
                         <c:v>7000000</c:v>
                       </c:pt>
-                      <c:pt idx="18" formatCode="#,##0">
+                      <c:pt idx="18">
                         <c:v>8000000</c:v>
                       </c:pt>
-                      <c:pt idx="19" formatCode="#,##0">
+                      <c:pt idx="19">
                         <c:v>9000000</c:v>
                       </c:pt>
-                      <c:pt idx="20" formatCode="#,##0">
+                      <c:pt idx="20">
                         <c:v>10000000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1928,7 +1961,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1966,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="626597904"/>
@@ -2048,7 +2081,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2080,7 +2113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="626599216"/>
@@ -2128,7 +2161,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2204,7 +2237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2245,7 +2278,7 @@
             <c:numRef>
               <c:f>[1]Hoja1!$A$24:$A$43</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -2438,7 +2471,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>100</c:v>
@@ -2647,11 +2680,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2685,7 +2718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628470392"/>
@@ -2767,7 +2800,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2799,7 +2832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628471704"/>
@@ -2847,7 +2880,563 @@
       <a:pPr>
         <a:defRPr u="none"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempos del</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> ABB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t> promedio para n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ABB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ABB!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.4373017494289998E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0796736534029997E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9604644775390996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0333481971828997E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3909757247748002E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2040138699376299E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9219858081196401E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1205672763026099E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19209289550781E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5020370938145799E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5020370938145799E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5854835737627601E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.69277188888373E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.63316724410834E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1219252630544399E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.85966496246692E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8358230136073E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4213067010568899E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8358230136073E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4467-47C0-B4E3-4AFE357C303D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="470174056"/>
+        <c:axId val="470176680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="470174056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470176680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470176680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> (SEG)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470174056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3018,6 +3607,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5030,20 +5659,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
+      <xdr:colOff>658898</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>93543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>465665</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260827</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25946</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5180,6 +6312,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462866</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154448</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF8C99E-7078-483C-9082-969F518713A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5826,23 +7001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75AF09-E0BD-4AA2-AB32-F0D8724F4C46}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C43"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +7043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -5894,7 +7069,7 @@
         <v>6.6757201011568996E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1000</v>
       </c>
@@ -5920,7 +7095,7 @@
         <v>7.5101854690728995E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5000</v>
       </c>
@@ -5946,7 +7121,7 @@
         <v>6.5565109252930005E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>10000</v>
       </c>
@@ -5972,7 +7147,7 @@
         <v>5.9604644775390996E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>50000</v>
       </c>
@@ -5998,7 +7173,7 @@
         <v>8.4638594444186003E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>100000</v>
       </c>
@@ -6024,7 +7199,7 @@
         <v>7.9870221725287001E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>200000</v>
       </c>
@@ -6050,7 +7225,7 @@
         <v>9.0599058921725002E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>400000</v>
       </c>
@@ -6076,7 +7251,7 @@
         <v>8.4638594444186003E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>600000</v>
       </c>
@@ -6102,7 +7277,7 @@
         <v>7.3909757247748002E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>800000</v>
       </c>
@@ -6128,7 +7303,7 @@
         <v>9.4175339881985999E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1000000</v>
       </c>
@@ -6154,7 +7329,7 @@
         <v>7.1525573730469004E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2000000</v>
       </c>
@@ -6180,7 +7355,7 @@
         <v>1.1563300859052099E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3000000</v>
       </c>
@@ -6206,7 +7381,7 @@
         <v>1.09672544112982E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>4000000</v>
       </c>
@@ -6232,7 +7407,7 @@
         <v>1.13248825073242E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5000000</v>
       </c>
@@ -6258,7 +7433,7 @@
         <v>1.10864641555963E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>6000000</v>
       </c>
@@ -6284,7 +7459,7 @@
         <v>1.2636185147130199E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7000000</v>
       </c>
@@ -6310,7 +7485,7 @@
         <v>1.2755393754559899E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>8000000</v>
       </c>
@@ -6336,7 +7511,7 @@
         <v>1.2874603498858099E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9000000</v>
       </c>
@@ -6362,7 +7537,7 @@
         <v>1.2636185147130199E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>10000000</v>
       </c>
@@ -6388,7 +7563,7 @@
         <v>1.3828278042637999E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -6417,7 +7592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>100</v>
       </c>
@@ -6446,7 +7621,7 @@
         <v>2.0384788513183499E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1000</v>
       </c>
@@ -6475,7 +7650,7 @@
         <v>2.3257733118953099E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5000</v>
       </c>
@@ -6504,7 +7679,7 @@
         <v>1.8966198695125001E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>10000</v>
       </c>
@@ -6533,7 +7708,7 @@
         <v>1.9812583559541899E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>50000</v>
       </c>
@@ -6562,7 +7737,7 @@
         <v>1.9407272702665E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>100000</v>
       </c>
@@ -6591,7 +7766,7 @@
         <v>2.5379657017765499E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>200000</v>
       </c>
@@ -6620,7 +7795,7 @@
         <v>2.2375583284883699E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>400000</v>
       </c>
@@ -6649,7 +7824,7 @@
         <v>2.3674965632380901E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>600000</v>
       </c>
@@ -6678,7 +7853,7 @@
         <v>2.4807453883113299E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>800000</v>
       </c>
@@ -6707,7 +7882,7 @@
         <v>2.2745132810086899E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1000000</v>
       </c>
@@ -6736,7 +7911,7 @@
         <v>2.0718574887723601E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2000000</v>
       </c>
@@ -6765,7 +7940,7 @@
         <v>2.2244454157771499E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>3000000</v>
       </c>
@@ -6794,7 +7969,7 @@
         <v>2.0563602447509701E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>4000000</v>
       </c>
@@ -6823,7 +7998,7 @@
         <v>2.06112854357343E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5000000</v>
       </c>
@@ -6852,7 +8027,7 @@
         <v>2.4354458219022399E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>6000000</v>
       </c>
@@ -6881,7 +8056,7 @@
         <v>2.5498866307316301E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7000000</v>
       </c>
@@ -6910,7 +8085,7 @@
         <v>2.2387504941434599E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>8000000</v>
       </c>
@@ -6939,7 +8114,7 @@
         <v>2.1719932192354399E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9000000</v>
       </c>
@@ -6968,7 +8143,7 @@
         <v>2.10523612622637E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>10000000</v>
       </c>
@@ -7008,24 +8183,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D766D3-7DAB-4C17-B436-DF4198543227}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:I43"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -7051,7 +8226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>100</v>
       </c>
@@ -7077,7 +8252,7 @@
         <v>8.7022783645807003E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1000</v>
       </c>
@@ -7103,7 +8278,7 @@
         <v>2.77757635558373E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>5000</v>
       </c>
@@ -7129,7 +8304,7 @@
         <v>1.569986307004E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>10000</v>
       </c>
@@ -7155,7 +8330,7 @@
         <v>2.1076202756375999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>50000</v>
       </c>
@@ -7181,7 +8356,7 @@
         <v>1.00839140941388E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>100000</v>
       </c>
@@ -7207,7 +8382,7 @@
         <v>1.9055604934692299E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>200000</v>
       </c>
@@ -7233,7 +8408,7 @@
         <v>3.7535428418777802E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>400000</v>
       </c>
@@ -7259,7 +8434,7 @@
         <v>7.3131325189024199E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>600000</v>
       </c>
@@ -7285,7 +8460,7 @@
         <v>1.2246966361999501E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>800000</v>
       </c>
@@ -7311,7 +8486,7 @@
         <v>2.6656507980078398E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1000000</v>
       </c>
@@ -7337,7 +8512,7 @@
         <v>1.82319874875247E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2000000</v>
       </c>
@@ -7363,7 +8538,7 @@
         <v>3.6878467071801398E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>3000000</v>
       </c>
@@ -7389,7 +8564,7 @@
         <v>6.28765812143683E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>4000000</v>
       </c>
@@ -7415,7 +8590,7 @@
         <v>7.3069212958216598E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>5000000</v>
       </c>
@@ -7441,7 +8616,7 @@
         <v>9.9125625565647992E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>6000000</v>
       </c>
@@ -7467,7 +8642,7 @@
         <v>1.11029148101806E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>7000000</v>
       </c>
@@ -7493,7 +8668,7 @@
         <v>1.25129465013742E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>8000000</v>
       </c>
@@ -7519,7 +8694,7 @@
         <v>1.4274966903030799E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>9000000</v>
       </c>
@@ -7545,7 +8720,7 @@
         <v>1.5519404783844899E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>10000000</v>
       </c>
@@ -7571,7 +8746,7 @@
         <v>1.7345856875181101E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
@@ -7600,7 +8775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>100</v>
       </c>
@@ -7629,7 +8804,7 @@
         <v>1.9180773961124901E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>1000</v>
       </c>
@@ -7658,7 +8833,7 @@
         <v>2.1958350771455998E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5000</v>
       </c>
@@ -7687,7 +8862,7 @@
         <v>3.0159950256347599E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>10000</v>
       </c>
@@ -7716,7 +8891,7 @@
         <v>4.4143198465462699E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>50000</v>
       </c>
@@ -7745,7 +8920,7 @@
         <v>1.1034011549782E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>100000</v>
       </c>
@@ -7774,7 +8949,7 @@
         <v>1.8575190915726101E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>200000</v>
       </c>
@@ -7803,7 +8978,7 @@
         <v>3.29947477439418E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>400000</v>
       </c>
@@ -7832,7 +9007,7 @@
         <v>7.3752400930970896E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>600000</v>
       </c>
@@ -7861,7 +9036,7 @@
         <v>9.2227460118010597E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>800000</v>
       </c>
@@ -7890,7 +9065,7 @@
         <v>1.3246178859844799E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1000000</v>
       </c>
@@ -7919,7 +9094,7 @@
         <v>1.58133509103208E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>2000000</v>
       </c>
@@ -7948,7 +9123,7 @@
         <v>3.11040878295898E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>3000000</v>
       </c>
@@ -7977,7 +9152,7 @@
         <v>4.6335579827427803E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>4000000</v>
       </c>
@@ -8006,7 +9181,7 @@
         <v>6.2277675606310298E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5000000</v>
       </c>
@@ -8035,7 +9210,7 @@
         <v>7.4189426377415596E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>6000000</v>
       </c>
@@ -8064,7 +9239,7 @@
         <v>8.5593583062291093E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7000000</v>
       </c>
@@ -8093,7 +9268,7 @@
         <v>1.00782634690403E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>8000000</v>
       </c>
@@ -8122,7 +9297,7 @@
         <v>1.26362089067697E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9000000</v>
       </c>
@@ -8151,7 +9326,7 @@
         <v>1.3014209456741799E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>10000000</v>
       </c>
@@ -8184,4 +9359,577 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C816D298-396B-4A20-B39E-B7A0B315C873}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.0000000000000201E-6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.4373017494289998E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="29">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>9.9999999999991504E-7</v>
+      </c>
+      <c r="G3" s="28">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H3" s="28">
+        <v>6.0796736534029997E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.00000000000013E-6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.9604644775390996E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="29">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E5" s="29">
+        <v>9.9999999999926494E-7</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7.0333481971828997E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.5367431640625E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H7" s="28">
+        <v>7.3909757247748002E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>209.71520000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.2040138699376299E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>400000</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="29">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H9" s="28">
+        <v>3.9219858081196401E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>600000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9.9999999997324409E-7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.1205672763026099E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>800000</v>
+      </c>
+      <c r="B11" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E11" s="29">
+        <v>9.9999999991773294E-7</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="G11" s="28">
+        <v>104.85760000000001</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1.19209289550781E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.14576721191406E-6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.0000000000575101E-6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.0000000000010001E-6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>139.81013333999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.5020370938145799E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>2000000</v>
+      </c>
+      <c r="B13" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1.9999999998354599E-6</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>104.85759999</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1.5020370938145799E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9.9999999969568791E-7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>52.428799980000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.5854835737627601E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>4000000</v>
+      </c>
+      <c r="B15" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="29">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2.00000000027955E-6</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>209.71520003000001</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1.69277188888373E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.9999999993913699E-6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.0000000001397699E-6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>157.28639998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.63316724410834E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>6000000</v>
+      </c>
+      <c r="B17" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2.14576721191406E-6</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2.00000000027955E-6</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>93.206755569999999</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2.1219252630544399E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.00000000027955E-6</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>104.85760001</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.85966496246692E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>8000000</v>
+      </c>
+      <c r="B19" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2.00000000027955E-6</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
+        <v>104.85760001</v>
+      </c>
+      <c r="H19" s="28">
+        <v>1.8358230136073E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2109248666</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.09944152832031E-6</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2.00000000027955E-6</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>64.527753860000004</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3.4213067010568899E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>10000000</v>
+      </c>
+      <c r="B21" s="28">
+        <v>2109248666</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.14576721191406E-6</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1.00000000102795E-6</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1.0000000001397699E-6</v>
+      </c>
+      <c r="G21" s="28">
+        <v>93.206755610000002</v>
+      </c>
+      <c r="H21" s="28">
+        <v>1.8358230136073E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Practica2/Pruebas/Pruebas.xlsx
+++ b/Practica2/Pruebas/Pruebas.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Desktop\ESCUELA\GitHub\Analisis-Algoritmos\Practica2\Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\5° SEMESTRE\Analisis de Algoritmos\Practicas\Practica2\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CD2D0-38D4-430C-AE6F-89FBB59F1360}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A53686-677C-4512-93BD-31A1E1C024F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="2" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="3" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Binaria" sheetId="1" r:id="rId1"/>
     <sheet name="Lineal" sheetId="2" r:id="rId2"/>
     <sheet name="ABB" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparativa" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -3447,6 +3448,885 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lineal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ABB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lineal!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.7022783645807003E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.77757635558373E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.569986307004E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1076202756375999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00839140941388E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9055604934692299E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7535428418777802E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3131325189024199E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2246966361999501E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6656507980078398E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82319874875247E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6878467071801398E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.28765812143683E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3069212958216598E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9125625565647992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.11029148101806E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.25129465013742E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4274966903030799E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5519404783844899E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7345856875181101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B99B-4C6B-9F8E-4530D90973B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Binaria</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ABB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Binaria!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.6757201011568996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5101854690728995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5565109252930005E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9604644775390996E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4638594444186003E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9870221725287001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0599058921725002E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4638594444186003E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3909757247748002E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4175339881985999E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1525573730469004E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1563300859052099E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.09672544112982E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.13248825073242E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.10864641555963E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2636185147130199E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2755393754559899E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2874603498858099E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2636185147130199E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3828278042637999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B99B-4C6B-9F8E-4530D90973B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ABB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ABB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ABB!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.4373017494289998E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0796736534029997E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9604644775390996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0333481971828997E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3909757247748002E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2040138699376299E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9219858081196401E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1205672763026099E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19209289550781E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5020370938145799E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5020370938145799E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5854835737627601E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.69277188888373E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.63316724410834E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1219252630544399E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.85966496246692E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8358230136073E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4213067010568899E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8358230136073E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B99B-4C6B-9F8E-4530D90973B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499859416"/>
+        <c:axId val="499863024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499859416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499863024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499863024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> (SEG)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499859416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000004E-6"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3647,6 +4527,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5660,6 +6577,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6347,6 +7767,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0646456B-9828-4760-B459-9EF1110BFD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7001,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75AF09-E0BD-4AA2-AB32-F0D8724F4C46}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -8183,7 +9644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D766D3-7DAB-4C17-B436-DF4198543227}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -9365,7 +10826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C816D298-396B-4A20-B39E-B7A0B315C873}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -9932,4 +11393,19 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2381FC31-2AB0-41D8-B87B-E77E61F8954D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Practica2/Pruebas/Pruebas.xlsx
+++ b/Practica2/Pruebas/Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\5° SEMESTRE\Analisis de Algoritmos\Practicas\Practica2\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A53686-677C-4512-93BD-31A1E1C024F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EBDA8-C2AF-4085-941C-E6A28E75FF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="3" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Binaria" sheetId="1" r:id="rId1"/>
@@ -4327,6 +4327,712 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Binaria</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lineal!$A$24:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Binaria!$I$24:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0384788513183499E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3257733118953099E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8966198695125001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9812583559541899E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9407272702665E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5379657017765499E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2375583284883699E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3674965632380901E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4807453883113299E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2745132810086899E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0718574887723601E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2244454157771499E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0563602447509701E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.06112854357343E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4354458219022399E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5498866307316301E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2387504941434599E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1719932192354399E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.10523612622637E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6345252990722599E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B68-493C-801D-EEAEDD0951F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lineal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lineal!$A$24:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lineal!$I$24:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9180773961124901E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1958350771455998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0159950256347599E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4143198465462699E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1034011549782E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8575190915726101E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.29947477439418E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3752400930970896E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2227460118010597E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3246178859844799E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58133509103208E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.11040878295898E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6335579827427803E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2277675606310298E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4189426377415596E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5593583062291093E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00782634690403E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.26362089067697E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3014209456741799E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45057197660207E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B68-493C-801D-EEAEDD0951F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="534476040"/>
+        <c:axId val="534478992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534476040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534478992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534478992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0000000000000012E-4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> (SEG)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534476040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7.0000000000000035E-5"/>
+        <c:minorUnit val="1.0000000000000004E-5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4564,6 +5270,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7080,6 +7826,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7816,6 +9065,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45071D9C-C65C-4D1C-94EE-EE04DA1E9272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8460,10 +9747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75AF09-E0BD-4AA2-AB32-F0D8724F4C46}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9024,6 +10311,12 @@
         <v>1.3828278042637999E-6</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>AVERAGE(H2:H21)</f>
+        <v>9.7155571268103906E-7</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
@@ -9631,6 +10924,12 @@
       </c>
       <c r="I43" s="6">
         <v>2.6345252990722599E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>AVERAGE(I24:I43)</f>
+        <v>2.2315383102977593E-5</v>
       </c>
     </row>
   </sheetData>
@@ -9642,10 +10941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D766D3-7DAB-4C17-B436-DF4198543227}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10207,6 +11506,12 @@
         <v>1.7345856875181101E-2</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>AVERAGE(H2:H21)</f>
+        <v>5.2551555666980046E-3</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>12</v>
@@ -10814,6 +12119,12 @@
       </c>
       <c r="I43" s="19">
         <v>1.45057197660207E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>AVERAGE(I24:I43)</f>
+        <v>4.2745835115965605E-3</v>
       </c>
     </row>
   </sheetData>
@@ -10826,7 +12137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C816D298-396B-4A20-B39E-B7A0B315C873}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -11399,8 +12710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2381FC31-2AB0-41D8-B87B-E77E61F8954D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Practica2/Pruebas/Pruebas.xlsx
+++ b/Practica2/Pruebas/Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\5° SEMESTRE\Analisis de Algoritmos\Practicas\Practica2\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EBDA8-C2AF-4085-941C-E6A28E75FF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472EDFD-75FE-49F1-AF10-0AFDEF455E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495" activeTab="1" xr2:uid="{0F44E7D9-DF95-46A6-BB1E-3FAAE9BCBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Binaria" sheetId="1" r:id="rId1"/>
@@ -1470,7 +1470,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tiemos de búsqueda lineal promedio para N</a:t>
+              <a:t>Tiempos de búsqueda lineal promedio para N</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9749,7 +9749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75AF09-E0BD-4AA2-AB32-F0D8724F4C46}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -10943,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D766D3-7DAB-4C17-B436-DF4198543227}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
